--- a/Bases Consolidados/PANTILLA FEPEP N.xlsx
+++ b/Bases Consolidados/PANTILLA FEPEP N.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Escritorio\PROYECTOS\AGENCIA INFONDO\COTIZACIONES\MCP\Bases Consolidados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Escritorio\PROYECTOS\AGENCIA INFONDO\COTIZACIONES\Bases Consolidados Nuevas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D56A24C-45E6-47C4-A1D0-635485A038A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE8962-9944-46D6-A3E8-B816C4EB71C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="6840" windowWidth="19200" windowHeight="11040" xr2:uid="{4DEF1856-761C-4FC4-A841-9B5775C87BF6}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4DEF1856-761C-4FC4-A841-9B5775C87BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Autos" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>Fecha De Cotización</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Autos Esencial + Total</t>
   </si>
   <si>
-    <t>Autos Esencial</t>
-  </si>
-  <si>
     <t>Autos Plus</t>
   </si>
   <si>
@@ -137,17 +134,132 @@
     <t>CONDICIONES ECONOMICAS</t>
   </si>
   <si>
-    <t>Autos Parcial</t>
-  </si>
-  <si>
     <t>COTIZACIÓN PÓLIZA COLECTIVA DE AUTOS FEPEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Global Franquicia</t>
+  </si>
+  <si>
+    <t>Responsabilidad civil extracontractual
+Daños a bienes de terceros
+Muerte o lesión a una persona
+Muerte o lesiones a dos o más personas</t>
+  </si>
+  <si>
+    <t>Asistencia jurídica en proceso penal y civil</t>
+  </si>
+  <si>
+    <t>Pérdida total por daños</t>
+  </si>
+  <si>
+    <t>Pérdida parcial por daños</t>
+  </si>
+  <si>
+    <t>Pérdida total por hurto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terremoto </t>
+  </si>
+  <si>
+    <t>Amparo patrimonial</t>
+  </si>
+  <si>
+    <t>Gastos de transporte por pérdida total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehículo de reemplazo por pérdida total </t>
+  </si>
+  <si>
+    <t>Vehículo de reemplazo por pérdida parcial</t>
+  </si>
+  <si>
+    <t>Asistencias</t>
+  </si>
+  <si>
+    <t>Accidentes personales al conductor</t>
+  </si>
+  <si>
+    <t>Accidentes personales a ocupantes</t>
+  </si>
+  <si>
+    <t>Accidentes al viajero</t>
+  </si>
+  <si>
+    <t>Renta por hospitalización en viajes</t>
+  </si>
+  <si>
+    <t>Equipaje protegido</t>
+  </si>
+  <si>
+    <t>Hurto de documentos</t>
+  </si>
+  <si>
+    <t>Consulta médica domiciliaria</t>
+  </si>
+  <si>
+    <t>Incluida</t>
+  </si>
+  <si>
+    <t>Incluido</t>
+  </si>
+  <si>
+    <t>$ 80.000 diarios hasta 
+por 30 días</t>
+  </si>
+  <si>
+    <t>Hasta por 20 días</t>
+  </si>
+  <si>
+    <t>No cubierto</t>
+  </si>
+  <si>
+    <t>No cubre</t>
+  </si>
+  <si>
+    <t>$ 3,900,000 (máximo 60 días)</t>
+  </si>
+  <si>
+    <t>Máximo por 8 días</t>
+  </si>
+  <si>
+    <t>Hasta por 15 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 días</t>
+  </si>
+  <si>
+    <t>$5.000.000 por cada ocupante con un límite máximo de $35.000.000 por evento.</t>
+  </si>
+  <si>
+    <t>Responsabilidad civil extracontractual</t>
+  </si>
+  <si>
+    <t>Pérdida total por daños o hurto</t>
+  </si>
+  <si>
+    <t>Pérdida parcial por daños o hurto</t>
+  </si>
+  <si>
+    <t>Si el arreglo cuesta menos de 2.5 SMMLV 0 deberás asumirlo, si es superior, SURA asume el valor.</t>
+  </si>
+  <si>
+    <t>1 SMMLV</t>
+  </si>
+  <si>
+    <t>VALOR ASEGURADO AUTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +321,22 @@
       <color theme="0"/>
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="The Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="The Sans"/>
     </font>
   </fonts>
   <fills count="10">
@@ -363,10 +491,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -384,19 +513,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,20 +529,59 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,32 +591,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,13 +673,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>42439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>8889</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>715568</xdr:rowOff>
@@ -577,6 +721,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C929F83B-1A3D-4BB9-BF0D-53B82CAA69EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10299700" y="8537575"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -877,578 +1076,791 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C112-9AF6-42D6-81AB-E2C154B579CA}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="59.1" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:7" ht="59.1" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="29" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="25" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="29" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="25" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="25" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="29" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="25" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="25" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="25" t="s">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="29" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="29" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="B17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="21"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="21" t="s">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="A21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="17">
+        <v>3040000000</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3040000000</v>
+      </c>
+      <c r="D21" s="17">
+        <v>5000000000</v>
+      </c>
+      <c r="E21" s="17">
+        <v>5000000000</v>
+      </c>
+      <c r="F21" s="17">
+        <v>5000000000</v>
+      </c>
+      <c r="G21" s="17">
+        <v>4000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.5">
+      <c r="A23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.5">
+      <c r="A24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="17" t="str">
+        <f t="shared" ref="C24:C27" si="0">+C23</f>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="17" t="str">
+        <f>E23</f>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="F24" s="17" t="str">
+        <f>F23</f>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.5">
+      <c r="A25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="D25" s="17" t="str">
+        <f>D23</f>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="E25" s="17" t="str">
+        <f t="shared" ref="E25:F27" si="1">+E24</f>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="F25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.5">
+      <c r="A26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="F26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22.5">
+      <c r="A27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="D27" s="17" t="str">
+        <f>D25</f>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="E27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="F27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.5">
+      <c r="A29" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="C33" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="F33" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="17">
+        <v>35000000</v>
+      </c>
+      <c r="C34" s="17">
+        <v>35000000</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="7"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="16">
-        <v>45913</v>
-      </c>
-      <c r="C33" s="16">
-        <v>45913</v>
-      </c>
-      <c r="D33" s="16">
-        <v>45913</v>
-      </c>
-      <c r="E33" s="16">
-        <v>45913</v>
-      </c>
-      <c r="F33" s="16">
-        <v>45913</v>
-      </c>
-      <c r="G33" s="16">
-        <v>45913</v>
-      </c>
-      <c r="H33" s="16">
-        <v>45913</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="16">
-        <v>45974</v>
-      </c>
-      <c r="C34" s="16">
-        <v>45971</v>
-      </c>
-      <c r="D34" s="16">
-        <v>45974</v>
-      </c>
-      <c r="E34" s="16">
-        <v>45974</v>
-      </c>
-      <c r="F34" s="16">
-        <v>45974</v>
-      </c>
-      <c r="G34" s="16">
-        <v>45974</v>
-      </c>
-      <c r="H34" s="16">
-        <v>45974</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="18">
-        <v>61</v>
-      </c>
-      <c r="C35" s="18">
-        <v>58</v>
-      </c>
-      <c r="D35" s="18">
-        <v>61</v>
-      </c>
-      <c r="E35" s="18">
-        <v>61</v>
-      </c>
-      <c r="F35" s="18">
-        <v>61</v>
-      </c>
-      <c r="G35" s="18">
-        <v>61</v>
-      </c>
-      <c r="H35" s="18">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-    </row>
-    <row r="40" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A40" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="18">
+        <v>0</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="18">
+        <v>0</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0</v>
+      </c>
+      <c r="D43" s="18">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45">
+      <c r="A44" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="21">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1456,51 +1868,249 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75">
+      <c r="A46" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
+      <c r="A49" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="13">
+        <v>46266</v>
+      </c>
+      <c r="C51" s="13">
+        <v>46266</v>
+      </c>
+      <c r="D51" s="13">
+        <v>46266</v>
+      </c>
+      <c r="E51" s="13">
+        <v>46266</v>
+      </c>
+      <c r="F51" s="13">
+        <v>46266</v>
+      </c>
+      <c r="G51" s="13">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+    </row>
+    <row r="57" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A57" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="36">
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A16:B16"/>
@@ -1509,32 +2119,13 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1543,12 +2134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A46240E9C16ACF4580208BCDD1584C19" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c123b30116eb1696ed6760edbcdae06c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cb24288e-bf72-47ae-a461-19b0293297a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9259aa4610e07bbb8461321e94cbc80" ns3:_="">
     <xsd:import namespace="cb24288e-bf72-47ae-a461-19b0293297a2"/>
@@ -1674,6 +2259,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1684,22 +2275,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059BE399-E90A-4F5C-8B54-187AC91B948A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="cb24288e-bf72-47ae-a461-19b0293297a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F720539-AD5F-4FC3-9414-E2EE1548D97C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1717,6 +2292,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059BE399-E90A-4F5C-8B54-187AC91B948A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="cb24288e-bf72-47ae-a461-19b0293297a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98AAA9BD-141C-449E-9A5F-E23FE59D0BF8}">
   <ds:schemaRefs>

--- a/Bases Consolidados/PANTILLA FEPEP N.xlsx
+++ b/Bases Consolidados/PANTILLA FEPEP N.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Escritorio\PROYECTOS\AGENCIA INFONDO\COTIZACIONES\Bases Consolidados Nuevas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Escritorio\PROYECTOS\AGENCIA INFONDO\COTIZACIONES\MCP\Bases Consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE8962-9944-46D6-A3E8-B816C4EB71C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240548E5-3765-4CAF-A925-4D3C154E0F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4DEF1856-761C-4FC4-A841-9B5775C87BF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4DEF1856-761C-4FC4-A841-9B5775C87BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Autos" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>Fecha De Cotización</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>VALOR ASEGURADO AUTO</t>
+  </si>
+  <si>
+    <t>Autos Clasico</t>
   </si>
 </sst>
 </file>
@@ -552,49 +555,49 @@
     <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,14 +676,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>42439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>8889</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>715568</xdr:rowOff>
     </xdr:to>
@@ -723,7 +726,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1076,212 +1079,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C112-9AF6-42D6-81AB-E2C154B579CA}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="7" width="18.5703125" customWidth="1"/>
+    <col min="3" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="59.1" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="59.1" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="24" t="s">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="26" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="24" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="26" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="24" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="B12" s="30"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24" t="s">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="26" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="24" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B17" s="36"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="30" t="s">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1291,38 +1312,44 @@
         <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25"/>
       <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="45">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="45">
       <c r="A21" s="16" t="s">
         <v>34</v>
       </c>
@@ -1332,9 +1359,7 @@
       <c r="C21" s="17">
         <v>3040000000</v>
       </c>
-      <c r="D21" s="17">
-        <v>5000000000</v>
-      </c>
+      <c r="D21" s="17"/>
       <c r="E21" s="17">
         <v>5000000000</v>
       </c>
@@ -1342,10 +1367,13 @@
         <v>5000000000</v>
       </c>
       <c r="G21" s="17">
+        <v>5000000000</v>
+      </c>
+      <c r="H21" s="17">
         <v>4000000000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
@@ -1355,9 +1383,7 @@
       <c r="C22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
         <v>52</v>
       </c>
@@ -1367,8 +1393,11 @@
       <c r="G22" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="22.5">
+      <c r="H22" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22.5">
       <c r="A23" s="16" t="s">
         <v>36</v>
       </c>
@@ -1378,9 +1407,7 @@
       <c r="C23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>68</v>
-      </c>
+      <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
         <v>68</v>
       </c>
@@ -1390,8 +1417,11 @@
       <c r="G23" s="17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="22.5">
+      <c r="H23" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22.5">
       <c r="A24" s="16" t="s">
         <v>37</v>
       </c>
@@ -1402,22 +1432,23 @@
         <f t="shared" ref="C24:C27" si="0">+C23</f>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="E24" s="17" t="str">
-        <f>E23</f>
-        <v>VALOR ASEGURADO AUTO</v>
       </c>
       <c r="F24" s="17" t="str">
         <f>F23</f>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="17" t="str">
+        <f>G23</f>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.5">
+    <row r="25" spans="1:8" ht="22.5">
       <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
@@ -1428,23 +1459,24 @@
         <f t="shared" si="0"/>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="D25" s="17" t="str">
-        <f>D23</f>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="str">
+        <f>E23</f>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="E25" s="17" t="str">
-        <f t="shared" ref="E25:F27" si="1">+E24</f>
+      <c r="F25" s="17" t="str">
+        <f t="shared" ref="F25:G27" si="1">+F24</f>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="F25" s="17" t="str">
+      <c r="G25" s="17" t="str">
         <f t="shared" si="1"/>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="H25" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.5">
+    <row r="26" spans="1:8" ht="22.5">
       <c r="A26" s="16" t="s">
         <v>37</v>
       </c>
@@ -1455,22 +1487,23 @@
         <f t="shared" si="0"/>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="E26" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>VALOR ASEGURADO AUTO</v>
       </c>
       <c r="F26" s="17" t="str">
         <f t="shared" si="1"/>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="22.5">
+    <row r="27" spans="1:8" ht="22.5">
       <c r="A27" s="16" t="s">
         <v>39</v>
       </c>
@@ -1481,23 +1514,24 @@
         <f t="shared" si="0"/>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="D27" s="17" t="str">
-        <f>D25</f>
-        <v>VALOR ASEGURADO AUTO</v>
-      </c>
+      <c r="D27" s="17"/>
       <c r="E27" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f>E25</f>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
       <c r="F27" s="17" t="str">
         <f t="shared" si="1"/>
         <v>VALOR ASEGURADO AUTO</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>VALOR ASEGURADO AUTO</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="16" t="s">
         <v>40</v>
       </c>
@@ -1507,9 +1541,7 @@
       <c r="C28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>53</v>
       </c>
@@ -1517,10 +1549,13 @@
         <v>53</v>
       </c>
       <c r="G28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.5">
+    <row r="29" spans="1:8" ht="22.5">
       <c r="A29" s="16" t="s">
         <v>41</v>
       </c>
@@ -1530,20 +1565,21 @@
       <c r="C29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="17">
-        <v>1200000</v>
-      </c>
+      <c r="D29" s="17"/>
       <c r="E29" s="17">
         <v>1200000</v>
       </c>
       <c r="F29" s="17">
         <v>1200000</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="16" t="s">
         <v>42</v>
       </c>
@@ -1553,9 +1589,7 @@
       <c r="C30" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
         <v>55</v>
       </c>
@@ -1563,10 +1597,13 @@
         <v>55</v>
       </c>
       <c r="G30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="16" t="s">
         <v>43</v>
       </c>
@@ -1576,9 +1613,7 @@
       <c r="C31" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>60</v>
       </c>
@@ -1586,10 +1621,13 @@
         <v>60</v>
       </c>
       <c r="G31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="16" t="s">
         <v>44</v>
       </c>
@@ -1599,9 +1637,7 @@
       <c r="C32" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
         <v>52</v>
       </c>
@@ -1611,8 +1647,11 @@
       <c r="G32" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="16" t="s">
         <v>45</v>
       </c>
@@ -1622,20 +1661,21 @@
       <c r="C33" s="17">
         <v>50000000</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="17">
-        <v>50000000</v>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="F33" s="17">
         <v>50000000</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="H33" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="16" t="s">
         <v>46</v>
       </c>
@@ -1645,18 +1685,19 @@
       <c r="C34" s="17">
         <v>35000000</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="16" t="s">
         <v>47</v>
       </c>
@@ -1666,9 +1707,7 @@
       <c r="C35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
         <v>56</v>
       </c>
@@ -1678,8 +1717,11 @@
       <c r="G35" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="16" t="s">
         <v>48</v>
       </c>
@@ -1689,9 +1731,7 @@
       <c r="C36" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
         <v>56</v>
       </c>
@@ -1701,8 +1741,11 @@
       <c r="G36" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="16" t="s">
         <v>49</v>
       </c>
@@ -1712,9 +1755,7 @@
       <c r="C37" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
         <v>56</v>
       </c>
@@ -1724,8 +1765,11 @@
       <c r="G37" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="16" t="s">
         <v>50</v>
       </c>
@@ -1735,9 +1779,7 @@
       <c r="C38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
         <v>56</v>
       </c>
@@ -1747,8 +1789,11 @@
       <c r="G38" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="16" t="s">
         <v>51</v>
       </c>
@@ -1758,20 +1803,21 @@
       <c r="C39" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1779,19 +1825,21 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="30" t="s">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
@@ -1801,9 +1849,7 @@
       <c r="C42" s="18">
         <v>0</v>
       </c>
-      <c r="D42" s="18">
-        <v>0</v>
-      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="18">
         <v>0</v>
       </c>
@@ -1813,8 +1859,11 @@
       <c r="G42" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
         <v>64</v>
       </c>
@@ -1824,9 +1873,7 @@
       <c r="C43" s="18">
         <v>0</v>
       </c>
-      <c r="D43" s="18">
-        <v>0</v>
-      </c>
+      <c r="D43" s="18"/>
       <c r="E43" s="18">
         <v>0</v>
       </c>
@@ -1836,8 +1883,11 @@
       <c r="G43" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="45">
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45">
       <c r="A44" s="19" t="s">
         <v>65</v>
       </c>
@@ -1847,20 +1897,21 @@
       <c r="C44" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>67</v>
+      <c r="D44" s="21"/>
+      <c r="E44" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="21">
         <v>800000</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1868,19 +1919,21 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75">
-      <c r="A46" s="32" t="s">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75">
+      <c r="A46" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="7"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1888,8 +1941,9 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1897,19 +1951,21 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75">
-      <c r="A49" s="32" t="s">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75">
+      <c r="A49" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
         <v>13</v>
       </c>
@@ -1919,8 +1975,9 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
         <v>14</v>
       </c>
@@ -1940,10 +1997,13 @@
         <v>46266</v>
       </c>
       <c r="G51" s="13">
+        <v>46266</v>
+      </c>
+      <c r="H51" s="13">
         <v>46097</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
@@ -1953,19 +2013,21 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="15" t="s">
         <v>16</v>
       </c>
@@ -1975,39 +2037,43 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="2"/>
       <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="34" t="s">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-    </row>
-    <row r="57" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A57" s="33" t="s">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+    </row>
+    <row r="57" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A57" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2015,8 +2081,9 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2024,8 +2091,9 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2033,8 +2101,9 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2042,8 +2111,9 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2051,8 +2121,9 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2060,8 +2131,9 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2069,8 +2141,9 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2078,8 +2151,9 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2087,30 +2161,11 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A16:B16"/>
@@ -2119,13 +2174,33 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2134,6 +2209,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A46240E9C16ACF4580208BCDD1584C19" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c123b30116eb1696ed6760edbcdae06c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cb24288e-bf72-47ae-a461-19b0293297a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9259aa4610e07bbb8461321e94cbc80" ns3:_="">
     <xsd:import namespace="cb24288e-bf72-47ae-a461-19b0293297a2"/>
@@ -2259,35 +2349,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F720539-AD5F-4FC3-9414-E2EE1548D97C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98AAA9BD-141C-449E-9A5F-E23FE59D0BF8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cb24288e-bf72-47ae-a461-19b0293297a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2309,9 +2374,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98AAA9BD-141C-449E-9A5F-E23FE59D0BF8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F720539-AD5F-4FC3-9414-E2EE1548D97C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb24288e-bf72-47ae-a461-19b0293297a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>